--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,70 +43,79 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>falling</t>
@@ -115,22 +124,25 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -139,12 +151,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
@@ -172,171 +178,165 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>god</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>please</t>
+    <t>super</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -346,13 +346,16 @@
     <t>increased</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>shop</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>shopping</t>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -803,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -827,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -853,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -906,16 +909,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -935,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -977,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -985,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1035,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7945205479452054</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7826086956521739</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1103,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1203,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.8484848484848485</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7567567567567568</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.8482142857142857</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.72</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1303,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.8198433420365535</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L14">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.79375</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5932203389830508</v>
+        <v>0.64</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1453,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16">
         <v>0.7872340425531915</v>
@@ -1485,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17">
         <v>0.78125</v>
@@ -1535,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1585,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5666666666666667</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1627,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5368217054263565</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C20">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D20">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1677,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5294117647058824</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.76875</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1727,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,16 +1759,16 @@
         <v>71</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1777,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5161290322580645</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1803,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23">
-        <v>0.7560975609756098</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1835,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4516129032258064</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1853,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K24">
-        <v>0.7547169811320755</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1885,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4516129032258064</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1903,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25">
-        <v>0.6976744186046512</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1927,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1935,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.45</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1953,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>0.6875</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1977,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1985,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.44</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2003,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K27">
-        <v>0.6842105263157895</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2027,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2035,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4358974358974359</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2053,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2085,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4102564102564102</v>
+        <v>0.475</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2103,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K29">
         <v>0.6818181818181818</v>
@@ -2135,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3636363636363636</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2153,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2177,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2185,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3611111111111111</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2203,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K31">
-        <v>0.675</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2227,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2235,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3571428571428572</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2253,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2285,49 +2288,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3513513513513514</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L33">
+        <v>22</v>
+      </c>
+      <c r="M33">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>13</v>
-      </c>
-      <c r="D33">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>24</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K33">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L33">
-        <v>23</v>
-      </c>
-      <c r="M33">
-        <v>23</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2335,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3134920634920635</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C34">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2353,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K34">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2377,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2385,13 +2388,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3111111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2403,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K35">
-        <v>0.6428571428571429</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2427,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2456,16 +2459,16 @@
         <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2477,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2506,16 +2509,16 @@
         <v>54</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2527,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2535,13 +2538,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2549019607843137</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2553,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K38">
-        <v>0.6060606060606061</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2577,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2585,13 +2588,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.225</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2603,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2627,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2635,13 +2638,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1662198391420912</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2653,31 +2656,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K40">
-        <v>0.5782312925170068</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L40">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M40">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2685,13 +2688,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1133333333333333</v>
+        <v>0.2125</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2703,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>266</v>
+        <v>63</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K41">
-        <v>0.574468085106383</v>
+        <v>0.58</v>
       </c>
       <c r="L41">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2727,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2735,37 +2738,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01725625539257981</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E42">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1139</v>
+        <v>309</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K42">
         <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2777,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2785,37 +2788,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01617599482368166</v>
+        <v>0.08</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E43">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3041</v>
+        <v>276</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K43">
-        <v>0.5652173913043478</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2827,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2835,49 +2838,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01267605633802817</v>
+        <v>0.01898188093183779</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="F44">
-        <v>0.6699999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2103</v>
+        <v>1137</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K44">
-        <v>0.5630252100840336</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2885,37 +2888,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006331117442228553</v>
+        <v>0.01388440426218922</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>0.68</v>
+        <v>0.19</v>
       </c>
       <c r="F45">
-        <v>0.32</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3139</v>
+        <v>3054</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K45">
-        <v>0.550561797752809</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2927,21 +2930,45 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.01218940459446789</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>0.28</v>
+      </c>
+      <c r="F46">
+        <v>0.72</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2107</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>0.5476190476190477</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2953,47 +2980,71 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.005058488776478028</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>0.7</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>3147</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K47">
-        <v>0.5416666666666666</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>13</v>
-      </c>
-      <c r="M47">
-        <v>13</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K48">
-        <v>0.5185185185185185</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3005,21 +3056,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K49">
-        <v>0.5185185185185185</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3031,21 +3082,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L50">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3057,21 +3108,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K51">
-        <v>0.4666666666666667</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3083,21 +3134,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K52">
-        <v>0.4509803921568628</v>
+        <v>0.40625</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3109,21 +3160,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K53">
-        <v>0.3972602739726027</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3135,21 +3186,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K54">
-        <v>0.375</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3161,21 +3212,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K55">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3187,21 +3238,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K56">
-        <v>0.3220338983050847</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3213,21 +3264,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K57">
-        <v>0.2954545454545455</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3239,21 +3290,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K58">
-        <v>0.2631578947368421</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3265,47 +3316,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K59">
-        <v>0.2295081967213115</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K60">
-        <v>0.1944444444444444</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3317,21 +3368,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K61">
-        <v>0.1774193548387097</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3343,73 +3394,73 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K62">
-        <v>0.1588785046728972</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N62">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K63">
-        <v>0.1081081081081081</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>165</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K64">
-        <v>0.0360576923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3421,111 +3472,33 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>401</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>0.01446051167964405</v>
+        <v>0.0119309262166405</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N65">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="O65">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K66">
-        <v>0.01320339515875511</v>
-      </c>
-      <c r="L66">
-        <v>42</v>
-      </c>
-      <c r="M66">
-        <v>62</v>
-      </c>
-      <c r="N66">
-        <v>0.68</v>
-      </c>
-      <c r="O66">
-        <v>0.32</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67">
-        <v>0.006143667296786389</v>
-      </c>
-      <c r="L67">
-        <v>13</v>
-      </c>
-      <c r="M67">
-        <v>40</v>
-      </c>
-      <c r="N67">
-        <v>0.33</v>
-      </c>
-      <c r="O67">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K68">
-        <v>0.005233889434085705</v>
-      </c>
-      <c r="L68">
-        <v>16</v>
-      </c>
-      <c r="M68">
-        <v>66</v>
-      </c>
-      <c r="N68">
-        <v>0.24</v>
-      </c>
-      <c r="O68">
-        <v>0.76</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>3041</v>
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
